--- a/GXGameFrame/Config/Excel/Datas/GXGame/GXConfig.xlsx
+++ b/GXGameFrame/Config/Excel/Datas/GXGame/GXConfig.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="11670" windowHeight="5625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -73,7 +71,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +84,6 @@
       <color rgb="FF00323C"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -550,48 +541,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,97 +595,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,38 +1131,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>